--- a/Uploads/OCEAN-USD_1y.xlsx
+++ b/Uploads/OCEAN-USD_1y.xlsx
@@ -456,4017 +456,4017 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45477</v>
+        <v>45480</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5301</v>
+        <v>0.4806</v>
       </c>
       <c r="C2" t="n">
-        <v>1308813.6</v>
+        <v>442402.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45478</v>
+        <v>45481</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5001</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1476650.6</v>
+        <v>875296.7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45479</v>
+        <v>45482</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5321</v>
+        <v>0.5203</v>
       </c>
       <c r="C4" t="n">
-        <v>762948.3</v>
+        <v>704781.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45480</v>
+        <v>45483</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4806</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>442402.3</v>
+        <v>817763.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45481</v>
+        <v>45484</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5</v>
+        <v>0.4952</v>
       </c>
       <c r="C6" t="n">
-        <v>875296.7</v>
+        <v>407570.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45482</v>
+        <v>45485</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5203</v>
+        <v>0.5111</v>
       </c>
       <c r="C7" t="n">
-        <v>704781.9</v>
+        <v>406785</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45483</v>
+        <v>45486</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5165999999999999</v>
+        <v>0.4991</v>
       </c>
       <c r="C8" t="n">
-        <v>817763.2</v>
+        <v>273809.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45484</v>
+        <v>45487</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4952</v>
+        <v>0.5434</v>
       </c>
       <c r="C9" t="n">
-        <v>407570.2</v>
+        <v>967733.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45485</v>
+        <v>45488</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5111</v>
+        <v>0.6136</v>
       </c>
       <c r="C10" t="n">
-        <v>406785</v>
+        <v>2791942.9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45486</v>
+        <v>45489</v>
       </c>
       <c r="B11" t="n">
-        <v>0.4991</v>
+        <v>0.6172</v>
       </c>
       <c r="C11" t="n">
-        <v>273809.1</v>
+        <v>1113410.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45487</v>
+        <v>45490</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5434</v>
+        <v>0.6312</v>
       </c>
       <c r="C12" t="n">
-        <v>967733.4</v>
+        <v>739170.4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45488</v>
+        <v>45491</v>
       </c>
       <c r="B13" t="n">
-        <v>0.6136</v>
+        <v>0.6046</v>
       </c>
       <c r="C13" t="n">
-        <v>2791942.9</v>
+        <v>366548.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45489</v>
+        <v>45492</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6172</v>
+        <v>0.6389</v>
       </c>
       <c r="C14" t="n">
-        <v>1113410.8</v>
+        <v>377116.9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45490</v>
+        <v>45493</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6312</v>
+        <v>0.6296</v>
       </c>
       <c r="C15" t="n">
-        <v>739170.4</v>
+        <v>282277.8</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45491</v>
+        <v>45494</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6046</v>
+        <v>0.6415999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>366548.9</v>
+        <v>382645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45492</v>
+        <v>45495</v>
       </c>
       <c r="B17" t="n">
-        <v>0.6389</v>
+        <v>0.5943000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>377116.9</v>
+        <v>241140.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45493</v>
+        <v>45496</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6296</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>282277.8</v>
+        <v>426436.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45494</v>
+        <v>45497</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6415999999999999</v>
+        <v>0.526</v>
       </c>
       <c r="C19" t="n">
-        <v>382645</v>
+        <v>274056</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45495</v>
+        <v>45498</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5943000000000001</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="C20" t="n">
-        <v>241140.1</v>
+        <v>445484.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45496</v>
+        <v>45499</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="C21" t="n">
-        <v>426436.5</v>
+        <v>371685.2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45497</v>
+        <v>45500</v>
       </c>
       <c r="B22" t="n">
-        <v>0.526</v>
+        <v>0.5562</v>
       </c>
       <c r="C22" t="n">
-        <v>274056</v>
+        <v>317176</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45498</v>
+        <v>45501</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5185999999999999</v>
+        <v>0.5392</v>
       </c>
       <c r="C23" t="n">
-        <v>445484.5</v>
+        <v>405998.8</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45499</v>
+        <v>45502</v>
       </c>
       <c r="B24" t="n">
-        <v>0.556</v>
+        <v>0.5282</v>
       </c>
       <c r="C24" t="n">
-        <v>371685.2</v>
+        <v>214981.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45500</v>
+        <v>45503</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5562</v>
+        <v>0.5138</v>
       </c>
       <c r="C25" t="n">
-        <v>317176</v>
+        <v>565421.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45501</v>
+        <v>45504</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5392</v>
+        <v>0.4984</v>
       </c>
       <c r="C26" t="n">
-        <v>405998.8</v>
+        <v>528920.2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45502</v>
+        <v>45505</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5282</v>
+        <v>0.4955</v>
       </c>
       <c r="C27" t="n">
-        <v>214981.1</v>
+        <v>309801.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45503</v>
+        <v>45506</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5138</v>
+        <v>0.4591</v>
       </c>
       <c r="C28" t="n">
-        <v>565421.1</v>
+        <v>201466.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45504</v>
+        <v>45507</v>
       </c>
       <c r="B29" t="n">
-        <v>0.4984</v>
+        <v>0.4305</v>
       </c>
       <c r="C29" t="n">
-        <v>528920.2</v>
+        <v>307903.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45505</v>
+        <v>45508</v>
       </c>
       <c r="B30" t="n">
-        <v>0.4955</v>
+        <v>0.4012</v>
       </c>
       <c r="C30" t="n">
-        <v>309801.4</v>
+        <v>1060898.9</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45506</v>
+        <v>45509</v>
       </c>
       <c r="B31" t="n">
-        <v>0.4591</v>
+        <v>0.3422</v>
       </c>
       <c r="C31" t="n">
-        <v>201466.3</v>
+        <v>1627023.8</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45507</v>
+        <v>45510</v>
       </c>
       <c r="B32" t="n">
-        <v>0.4305</v>
+        <v>0.367</v>
       </c>
       <c r="C32" t="n">
-        <v>307903.4</v>
+        <v>701591.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45508</v>
+        <v>45511</v>
       </c>
       <c r="B33" t="n">
-        <v>0.4012</v>
+        <v>0.3492</v>
       </c>
       <c r="C33" t="n">
-        <v>1060898.9</v>
+        <v>485681.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45509</v>
+        <v>45512</v>
       </c>
       <c r="B34" t="n">
-        <v>0.3422</v>
+        <v>0.3815</v>
       </c>
       <c r="C34" t="n">
-        <v>1627023.8</v>
+        <v>583996.9</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45510</v>
+        <v>45513</v>
       </c>
       <c r="B35" t="n">
-        <v>0.367</v>
+        <v>0.368</v>
       </c>
       <c r="C35" t="n">
-        <v>701591.4</v>
+        <v>445889.3</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45511</v>
+        <v>45514</v>
       </c>
       <c r="B36" t="n">
-        <v>0.3492</v>
+        <v>0.3914</v>
       </c>
       <c r="C36" t="n">
-        <v>485681.4</v>
+        <v>261618.2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45512</v>
+        <v>45515</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3815</v>
+        <v>0.3537</v>
       </c>
       <c r="C37" t="n">
-        <v>583996.9</v>
+        <v>486677.6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45513</v>
+        <v>45516</v>
       </c>
       <c r="B38" t="n">
-        <v>0.368</v>
+        <v>0.3729</v>
       </c>
       <c r="C38" t="n">
-        <v>445889.3</v>
+        <v>508350.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45514</v>
+        <v>45517</v>
       </c>
       <c r="B39" t="n">
-        <v>0.3914</v>
+        <v>0.3796</v>
       </c>
       <c r="C39" t="n">
-        <v>261618.2</v>
+        <v>226141.3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45515</v>
+        <v>45518</v>
       </c>
       <c r="B40" t="n">
-        <v>0.3537</v>
+        <v>0.3796</v>
       </c>
       <c r="C40" t="n">
-        <v>486677.6</v>
+        <v>231587.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45516</v>
+        <v>45519</v>
       </c>
       <c r="B41" t="n">
-        <v>0.3729</v>
+        <v>0.3578</v>
       </c>
       <c r="C41" t="n">
-        <v>508350.5</v>
+        <v>250332.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45517</v>
+        <v>45520</v>
       </c>
       <c r="B42" t="n">
-        <v>0.3796</v>
+        <v>0.3587</v>
       </c>
       <c r="C42" t="n">
-        <v>226141.3</v>
+        <v>107652</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45518</v>
+        <v>45521</v>
       </c>
       <c r="B43" t="n">
-        <v>0.3796</v>
+        <v>0.3626</v>
       </c>
       <c r="C43" t="n">
-        <v>231587.1</v>
+        <v>166381.8</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45519</v>
+        <v>45522</v>
       </c>
       <c r="B44" t="n">
-        <v>0.3578</v>
+        <v>0.3554</v>
       </c>
       <c r="C44" t="n">
-        <v>250332.6</v>
+        <v>74631</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45520</v>
+        <v>45523</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3587</v>
+        <v>0.3958</v>
       </c>
       <c r="C45" t="n">
-        <v>107652</v>
+        <v>533119.7</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45521</v>
+        <v>45524</v>
       </c>
       <c r="B46" t="n">
-        <v>0.3626</v>
+        <v>0.3787</v>
       </c>
       <c r="C46" t="n">
-        <v>166381.8</v>
+        <v>719594.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45522</v>
+        <v>45525</v>
       </c>
       <c r="B47" t="n">
-        <v>0.3554</v>
+        <v>0.4164</v>
       </c>
       <c r="C47" t="n">
-        <v>74631</v>
+        <v>559478.5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45523</v>
+        <v>45526</v>
       </c>
       <c r="B48" t="n">
-        <v>0.3958</v>
+        <v>0.4387</v>
       </c>
       <c r="C48" t="n">
-        <v>533119.7</v>
+        <v>851097.9</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45524</v>
+        <v>45527</v>
       </c>
       <c r="B49" t="n">
-        <v>0.3787</v>
+        <v>0.5215</v>
       </c>
       <c r="C49" t="n">
-        <v>719594.7</v>
+        <v>2033982.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45525</v>
+        <v>45528</v>
       </c>
       <c r="B50" t="n">
-        <v>0.4164</v>
+        <v>0.547</v>
       </c>
       <c r="C50" t="n">
-        <v>559478.5</v>
+        <v>684974.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45526</v>
+        <v>45529</v>
       </c>
       <c r="B51" t="n">
-        <v>0.4387</v>
+        <v>0.593</v>
       </c>
       <c r="C51" t="n">
-        <v>851097.9</v>
+        <v>599398.8</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45527</v>
+        <v>45530</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5215</v>
+        <v>0.5745</v>
       </c>
       <c r="C52" t="n">
-        <v>2033982.7</v>
+        <v>784859.4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45528</v>
+        <v>45531</v>
       </c>
       <c r="B53" t="n">
-        <v>0.547</v>
+        <v>0.5583</v>
       </c>
       <c r="C53" t="n">
-        <v>684974.3</v>
+        <v>925774</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45529</v>
+        <v>45532</v>
       </c>
       <c r="B54" t="n">
-        <v>0.593</v>
+        <v>0.516</v>
       </c>
       <c r="C54" t="n">
-        <v>599398.8</v>
+        <v>528623.1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45530</v>
+        <v>45533</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5745</v>
+        <v>0.4872</v>
       </c>
       <c r="C55" t="n">
-        <v>784859.4</v>
+        <v>784333.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45531</v>
+        <v>45534</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5583</v>
+        <v>0.5197000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>925774</v>
+        <v>932273.9</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45532</v>
+        <v>45535</v>
       </c>
       <c r="B57" t="n">
-        <v>0.516</v>
+        <v>0.491</v>
       </c>
       <c r="C57" t="n">
-        <v>528623.1</v>
+        <v>572586.3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45533</v>
+        <v>45536</v>
       </c>
       <c r="B58" t="n">
-        <v>0.4872</v>
+        <v>0.494</v>
       </c>
       <c r="C58" t="n">
-        <v>784333.3</v>
+        <v>1024643.6</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45534</v>
+        <v>45537</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5197000000000001</v>
+        <v>0.5352</v>
       </c>
       <c r="C59" t="n">
-        <v>932273.9</v>
+        <v>612220.9</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45535</v>
+        <v>45538</v>
       </c>
       <c r="B60" t="n">
-        <v>0.491</v>
+        <v>0.488</v>
       </c>
       <c r="C60" t="n">
-        <v>572586.3</v>
+        <v>692511.6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45536</v>
+        <v>45539</v>
       </c>
       <c r="B61" t="n">
-        <v>0.494</v>
+        <v>0.493</v>
       </c>
       <c r="C61" t="n">
-        <v>1024643.6</v>
+        <v>916026.3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45537</v>
+        <v>45540</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5352</v>
+        <v>0.4678</v>
       </c>
       <c r="C62" t="n">
-        <v>612220.9</v>
+        <v>378214.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45538</v>
+        <v>45541</v>
       </c>
       <c r="B63" t="n">
-        <v>0.488</v>
+        <v>0.461</v>
       </c>
       <c r="C63" t="n">
-        <v>692511.6</v>
+        <v>469685.6</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45539</v>
+        <v>45542</v>
       </c>
       <c r="B64" t="n">
-        <v>0.493</v>
+        <v>0.4609</v>
       </c>
       <c r="C64" t="n">
-        <v>916026.3</v>
+        <v>364818.3</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45540</v>
+        <v>45543</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4678</v>
+        <v>0.4765</v>
       </c>
       <c r="C65" t="n">
-        <v>378214.8</v>
+        <v>188054.5</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45541</v>
+        <v>45544</v>
       </c>
       <c r="B66" t="n">
-        <v>0.461</v>
+        <v>0.521</v>
       </c>
       <c r="C66" t="n">
-        <v>469685.6</v>
+        <v>559291.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45542</v>
+        <v>45545</v>
       </c>
       <c r="B67" t="n">
-        <v>0.4609</v>
+        <v>0.5797</v>
       </c>
       <c r="C67" t="n">
-        <v>364818.3</v>
+        <v>1128580.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45543</v>
+        <v>45546</v>
       </c>
       <c r="B68" t="n">
-        <v>0.4765</v>
+        <v>0.5855</v>
       </c>
       <c r="C68" t="n">
-        <v>188054.5</v>
+        <v>1186621.8</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45544</v>
+        <v>45547</v>
       </c>
       <c r="B69" t="n">
-        <v>0.521</v>
+        <v>0.5973000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>559291.1</v>
+        <v>1668209</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45545</v>
+        <v>45548</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5797</v>
+        <v>0.5955</v>
       </c>
       <c r="C70" t="n">
-        <v>1128580.2</v>
+        <v>1368710.7</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45546</v>
+        <v>45549</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5855</v>
+        <v>0.608</v>
       </c>
       <c r="C71" t="n">
-        <v>1186621.8</v>
+        <v>932644.4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45547</v>
+        <v>45550</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5973000000000001</v>
+        <v>0.5787</v>
       </c>
       <c r="C72" t="n">
-        <v>1668209</v>
+        <v>908178</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45548</v>
+        <v>45551</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5955</v>
+        <v>0.5465</v>
       </c>
       <c r="C73" t="n">
-        <v>1368710.7</v>
+        <v>921561.1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45549</v>
+        <v>45552</v>
       </c>
       <c r="B74" t="n">
-        <v>0.608</v>
+        <v>0.5814</v>
       </c>
       <c r="C74" t="n">
-        <v>932644.4</v>
+        <v>1399119.2</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45550</v>
+        <v>45553</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5787</v>
+        <v>0.6219</v>
       </c>
       <c r="C75" t="n">
-        <v>908178</v>
+        <v>1665149.3</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45551</v>
+        <v>45554</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5465</v>
+        <v>0.643</v>
       </c>
       <c r="C76" t="n">
-        <v>921561.1</v>
+        <v>3751563</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45552</v>
+        <v>45555</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5814</v>
+        <v>0.7019</v>
       </c>
       <c r="C77" t="n">
-        <v>1399119.2</v>
+        <v>2103998.4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45553</v>
+        <v>45556</v>
       </c>
       <c r="B78" t="n">
-        <v>0.6219</v>
+        <v>0.708</v>
       </c>
       <c r="C78" t="n">
-        <v>1665149.3</v>
+        <v>1377525.4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45554</v>
+        <v>45557</v>
       </c>
       <c r="B79" t="n">
-        <v>0.643</v>
+        <v>0.6892</v>
       </c>
       <c r="C79" t="n">
-        <v>3751563</v>
+        <v>1450169.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45555</v>
+        <v>45558</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7019</v>
+        <v>0.712</v>
       </c>
       <c r="C80" t="n">
-        <v>2103998.4</v>
+        <v>2095530.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45556</v>
+        <v>45559</v>
       </c>
       <c r="B81" t="n">
-        <v>0.708</v>
+        <v>0.7329</v>
       </c>
       <c r="C81" t="n">
-        <v>1377525.4</v>
+        <v>659877.7</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45557</v>
+        <v>45560</v>
       </c>
       <c r="B82" t="n">
-        <v>0.6892</v>
+        <v>0.708</v>
       </c>
       <c r="C82" t="n">
-        <v>1450169.5</v>
+        <v>591141.9</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45558</v>
+        <v>45561</v>
       </c>
       <c r="B83" t="n">
-        <v>0.712</v>
+        <v>0.715</v>
       </c>
       <c r="C83" t="n">
-        <v>2095530.3</v>
+        <v>692163.2</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45559</v>
+        <v>45562</v>
       </c>
       <c r="B84" t="n">
-        <v>0.7329</v>
+        <v>0.7286</v>
       </c>
       <c r="C84" t="n">
-        <v>659877.7</v>
+        <v>791748.5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45560</v>
+        <v>45563</v>
       </c>
       <c r="B85" t="n">
-        <v>0.708</v>
+        <v>0.6939</v>
       </c>
       <c r="C85" t="n">
-        <v>591141.9</v>
+        <v>1163118</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45561</v>
+        <v>45564</v>
       </c>
       <c r="B86" t="n">
-        <v>0.715</v>
+        <v>0.7016</v>
       </c>
       <c r="C86" t="n">
-        <v>692163.2</v>
+        <v>402341.9</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45562</v>
+        <v>45565</v>
       </c>
       <c r="B87" t="n">
-        <v>0.7286</v>
+        <v>0.6681</v>
       </c>
       <c r="C87" t="n">
-        <v>791748.5</v>
+        <v>737366.1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45563</v>
+        <v>45566</v>
       </c>
       <c r="B88" t="n">
-        <v>0.6939</v>
+        <v>0.641</v>
       </c>
       <c r="C88" t="n">
-        <v>1163118</v>
+        <v>1805203.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45564</v>
+        <v>45567</v>
       </c>
       <c r="B89" t="n">
-        <v>0.7016</v>
+        <v>0.615</v>
       </c>
       <c r="C89" t="n">
-        <v>402341.9</v>
+        <v>938998</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45565</v>
+        <v>45568</v>
       </c>
       <c r="B90" t="n">
-        <v>0.6681</v>
+        <v>0.5954</v>
       </c>
       <c r="C90" t="n">
-        <v>737366.1</v>
+        <v>639191.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45566</v>
+        <v>45569</v>
       </c>
       <c r="B91" t="n">
-        <v>0.641</v>
+        <v>0.6226</v>
       </c>
       <c r="C91" t="n">
-        <v>1805203.5</v>
+        <v>455393.8</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45567</v>
+        <v>45570</v>
       </c>
       <c r="B92" t="n">
-        <v>0.615</v>
+        <v>0.6076</v>
       </c>
       <c r="C92" t="n">
-        <v>938998</v>
+        <v>136989</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45568</v>
+        <v>45571</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5954</v>
+        <v>0.6239</v>
       </c>
       <c r="C93" t="n">
-        <v>639191.4</v>
+        <v>371192.5</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45569</v>
+        <v>45572</v>
       </c>
       <c r="B94" t="n">
-        <v>0.6226</v>
+        <v>0.6367</v>
       </c>
       <c r="C94" t="n">
-        <v>455393.8</v>
+        <v>688064.1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45570</v>
+        <v>45573</v>
       </c>
       <c r="B95" t="n">
-        <v>0.6076</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>136989</v>
+        <v>751570.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45571</v>
+        <v>45574</v>
       </c>
       <c r="B96" t="n">
-        <v>0.6239</v>
+        <v>0.5824</v>
       </c>
       <c r="C96" t="n">
-        <v>371192.5</v>
+        <v>403506.1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45572</v>
+        <v>45575</v>
       </c>
       <c r="B97" t="n">
-        <v>0.6367</v>
+        <v>0.5673</v>
       </c>
       <c r="C97" t="n">
-        <v>688064.1</v>
+        <v>313980.3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45573</v>
+        <v>45576</v>
       </c>
       <c r="B98" t="n">
-        <v>0.6173999999999999</v>
+        <v>0.6036</v>
       </c>
       <c r="C98" t="n">
-        <v>751570.9</v>
+        <v>398663.2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45574</v>
+        <v>45577</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5824</v>
+        <v>0.6393</v>
       </c>
       <c r="C99" t="n">
-        <v>403506.1</v>
+        <v>353939.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45575</v>
+        <v>45578</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5673</v>
+        <v>0.6141</v>
       </c>
       <c r="C100" t="n">
-        <v>313980.3</v>
+        <v>558301.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45576</v>
+        <v>45579</v>
       </c>
       <c r="B101" t="n">
-        <v>0.6036</v>
+        <v>0.6578000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>398663.2</v>
+        <v>560402</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45577</v>
+        <v>45580</v>
       </c>
       <c r="B102" t="n">
-        <v>0.6393</v>
+        <v>0.6336000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>353939.4</v>
+        <v>920787.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45578</v>
+        <v>45581</v>
       </c>
       <c r="B103" t="n">
-        <v>0.6141</v>
+        <v>0.6165</v>
       </c>
       <c r="C103" t="n">
-        <v>558301.4</v>
+        <v>475118.4</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45579</v>
+        <v>45582</v>
       </c>
       <c r="B104" t="n">
-        <v>0.6578000000000001</v>
+        <v>0.5907</v>
       </c>
       <c r="C104" t="n">
-        <v>560402</v>
+        <v>300058.9</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45580</v>
+        <v>45583</v>
       </c>
       <c r="B105" t="n">
-        <v>0.6336000000000001</v>
+        <v>0.6173</v>
       </c>
       <c r="C105" t="n">
-        <v>920787.3</v>
+        <v>253225.7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>45581</v>
+        <v>45584</v>
       </c>
       <c r="B106" t="n">
-        <v>0.6165</v>
+        <v>0.6079</v>
       </c>
       <c r="C106" t="n">
-        <v>475118.4</v>
+        <v>170608.6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>45582</v>
+        <v>45585</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5907</v>
+        <v>0.631</v>
       </c>
       <c r="C107" t="n">
-        <v>300058.9</v>
+        <v>291478.7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>45583</v>
+        <v>45586</v>
       </c>
       <c r="B108" t="n">
-        <v>0.6173</v>
+        <v>0.5999</v>
       </c>
       <c r="C108" t="n">
-        <v>253225.7</v>
+        <v>224604</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>45584</v>
+        <v>45587</v>
       </c>
       <c r="B109" t="n">
-        <v>0.6079</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>170608.6</v>
+        <v>336240.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>45585</v>
+        <v>45588</v>
       </c>
       <c r="B110" t="n">
-        <v>0.631</v>
+        <v>0.5725</v>
       </c>
       <c r="C110" t="n">
-        <v>291478.7</v>
+        <v>274628.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>45586</v>
+        <v>45589</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5999</v>
+        <v>0.5824</v>
       </c>
       <c r="C111" t="n">
-        <v>224604</v>
+        <v>401982.4</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>45587</v>
+        <v>45590</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.5244</v>
       </c>
       <c r="C112" t="n">
-        <v>336240.1</v>
+        <v>726726.9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>45588</v>
+        <v>45591</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5725</v>
+        <v>0.534</v>
       </c>
       <c r="C113" t="n">
-        <v>274628.9</v>
+        <v>238042.3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>45589</v>
+        <v>45592</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5824</v>
+        <v>0.5475</v>
       </c>
       <c r="C114" t="n">
-        <v>401982.4</v>
+        <v>167354.2</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>45590</v>
+        <v>45593</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5244</v>
+        <v>0.5498</v>
       </c>
       <c r="C115" t="n">
-        <v>726726.9</v>
+        <v>309099.8</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>45591</v>
+        <v>45594</v>
       </c>
       <c r="B116" t="n">
-        <v>0.534</v>
+        <v>0.5777</v>
       </c>
       <c r="C116" t="n">
-        <v>238042.3</v>
+        <v>424749.5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>45592</v>
+        <v>45595</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5475</v>
+        <v>0.5623</v>
       </c>
       <c r="C117" t="n">
-        <v>167354.2</v>
+        <v>304927.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>45593</v>
+        <v>45596</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5498</v>
+        <v>0.5591</v>
       </c>
       <c r="C118" t="n">
-        <v>309099.8</v>
+        <v>546787.4</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>45594</v>
+        <v>45597</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5777</v>
+        <v>0.5605</v>
       </c>
       <c r="C119" t="n">
-        <v>424749.5</v>
+        <v>594313.3</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>45595</v>
+        <v>45598</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5623</v>
+        <v>0.53</v>
       </c>
       <c r="C120" t="n">
-        <v>304927.6</v>
+        <v>157589.1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>45596</v>
+        <v>45599</v>
       </c>
       <c r="B121" t="n">
-        <v>0.5591</v>
+        <v>0.499</v>
       </c>
       <c r="C121" t="n">
-        <v>546787.4</v>
+        <v>233104.5</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>45597</v>
+        <v>45600</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5605</v>
+        <v>0.4891</v>
       </c>
       <c r="C122" t="n">
-        <v>594313.3</v>
+        <v>188728</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>45598</v>
+        <v>45601</v>
       </c>
       <c r="B123" t="n">
-        <v>0.53</v>
+        <v>0.5393</v>
       </c>
       <c r="C123" t="n">
-        <v>157589.1</v>
+        <v>600556.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>45599</v>
+        <v>45602</v>
       </c>
       <c r="B124" t="n">
-        <v>0.499</v>
+        <v>0.6081</v>
       </c>
       <c r="C124" t="n">
-        <v>233104.5</v>
+        <v>949632.4</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>45600</v>
+        <v>45603</v>
       </c>
       <c r="B125" t="n">
-        <v>0.4891</v>
+        <v>0.6054</v>
       </c>
       <c r="C125" t="n">
-        <v>188728</v>
+        <v>764858</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>45601</v>
+        <v>45604</v>
       </c>
       <c r="B126" t="n">
-        <v>0.5393</v>
+        <v>0.6012999999999999</v>
       </c>
       <c r="C126" t="n">
-        <v>600556.4</v>
+        <v>665954</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>45602</v>
+        <v>45605</v>
       </c>
       <c r="B127" t="n">
-        <v>0.6081</v>
+        <v>0.6333</v>
       </c>
       <c r="C127" t="n">
-        <v>949632.4</v>
+        <v>271841.1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>45603</v>
+        <v>45606</v>
       </c>
       <c r="B128" t="n">
-        <v>0.6054</v>
+        <v>0.6272</v>
       </c>
       <c r="C128" t="n">
-        <v>764858</v>
+        <v>1929353.7</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>45604</v>
+        <v>45607</v>
       </c>
       <c r="B129" t="n">
-        <v>0.6012999999999999</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>665954</v>
+        <v>1486128</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>45605</v>
+        <v>45608</v>
       </c>
       <c r="B130" t="n">
-        <v>0.6333</v>
+        <v>0.5952</v>
       </c>
       <c r="C130" t="n">
-        <v>271841.1</v>
+        <v>2656340.3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>45606</v>
+        <v>45609</v>
       </c>
       <c r="B131" t="n">
-        <v>0.6272</v>
+        <v>0.548</v>
       </c>
       <c r="C131" t="n">
-        <v>1929353.7</v>
+        <v>1863478.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>45607</v>
+        <v>45610</v>
       </c>
       <c r="B132" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.5318000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>1486128</v>
+        <v>1220423.7</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>45608</v>
+        <v>45611</v>
       </c>
       <c r="B133" t="n">
-        <v>0.5952</v>
+        <v>0.5554</v>
       </c>
       <c r="C133" t="n">
-        <v>2656340.3</v>
+        <v>480314.7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>45609</v>
+        <v>45612</v>
       </c>
       <c r="B134" t="n">
-        <v>0.548</v>
+        <v>0.5739</v>
       </c>
       <c r="C134" t="n">
-        <v>1863478.4</v>
+        <v>1212575.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>45610</v>
+        <v>45613</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5318000000000001</v>
+        <v>0.544</v>
       </c>
       <c r="C135" t="n">
-        <v>1220423.7</v>
+        <v>527869.9</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>45611</v>
+        <v>45614</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5554</v>
+        <v>0.5868</v>
       </c>
       <c r="C136" t="n">
-        <v>480314.7</v>
+        <v>1021504.6</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>45612</v>
+        <v>45615</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5739</v>
+        <v>0.5572</v>
       </c>
       <c r="C137" t="n">
-        <v>1212575.5</v>
+        <v>724814.3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>45613</v>
+        <v>45616</v>
       </c>
       <c r="B138" t="n">
-        <v>0.544</v>
+        <v>0.5336</v>
       </c>
       <c r="C138" t="n">
-        <v>527869.9</v>
+        <v>576203.9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>45614</v>
+        <v>45617</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5868</v>
+        <v>0.5507</v>
       </c>
       <c r="C139" t="n">
-        <v>1021504.6</v>
+        <v>786319.8</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>45615</v>
+        <v>45618</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5572</v>
+        <v>0.539</v>
       </c>
       <c r="C140" t="n">
-        <v>724814.3</v>
+        <v>794228.3</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>45616</v>
+        <v>45619</v>
       </c>
       <c r="B141" t="n">
-        <v>0.5336</v>
+        <v>0.6026</v>
       </c>
       <c r="C141" t="n">
-        <v>576203.9</v>
+        <v>1379188.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>45617</v>
+        <v>45620</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5507</v>
+        <v>0.6504</v>
       </c>
       <c r="C142" t="n">
-        <v>786319.8</v>
+        <v>1466501.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>45618</v>
+        <v>45621</v>
       </c>
       <c r="B143" t="n">
-        <v>0.539</v>
+        <v>0.61</v>
       </c>
       <c r="C143" t="n">
-        <v>794228.3</v>
+        <v>999397.4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>45619</v>
+        <v>45622</v>
       </c>
       <c r="B144" t="n">
-        <v>0.6026</v>
+        <v>0.5903</v>
       </c>
       <c r="C144" t="n">
-        <v>1379188.5</v>
+        <v>464436.9</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>45620</v>
+        <v>45623</v>
       </c>
       <c r="B145" t="n">
-        <v>0.6504</v>
+        <v>0.6536</v>
       </c>
       <c r="C145" t="n">
-        <v>1466501.7</v>
+        <v>699931.7</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>45621</v>
+        <v>45624</v>
       </c>
       <c r="B146" t="n">
-        <v>0.61</v>
+        <v>0.725</v>
       </c>
       <c r="C146" t="n">
-        <v>999397.4</v>
+        <v>1856809.1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>45622</v>
+        <v>45625</v>
       </c>
       <c r="B147" t="n">
-        <v>0.5903</v>
+        <v>0.7416</v>
       </c>
       <c r="C147" t="n">
-        <v>464436.9</v>
+        <v>1605146.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>45623</v>
+        <v>45626</v>
       </c>
       <c r="B148" t="n">
-        <v>0.6536</v>
+        <v>0.8228</v>
       </c>
       <c r="C148" t="n">
-        <v>699931.7</v>
+        <v>1632068.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>45624</v>
+        <v>45627</v>
       </c>
       <c r="B149" t="n">
-        <v>0.725</v>
+        <v>0.7955</v>
       </c>
       <c r="C149" t="n">
-        <v>1856809.1</v>
+        <v>927183.6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>45625</v>
+        <v>45628</v>
       </c>
       <c r="B150" t="n">
-        <v>0.7416</v>
+        <v>0.8299</v>
       </c>
       <c r="C150" t="n">
-        <v>1605146.4</v>
+        <v>1439259.5</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>45626</v>
+        <v>45629</v>
       </c>
       <c r="B151" t="n">
-        <v>0.8228</v>
+        <v>0.8262</v>
       </c>
       <c r="C151" t="n">
-        <v>1632068.1</v>
+        <v>1564583.7</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>45627</v>
+        <v>45630</v>
       </c>
       <c r="B152" t="n">
-        <v>0.7955</v>
+        <v>0.8068</v>
       </c>
       <c r="C152" t="n">
-        <v>927183.6</v>
+        <v>1315462.3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>45628</v>
+        <v>45631</v>
       </c>
       <c r="B153" t="n">
-        <v>0.8299</v>
+        <v>0.8416</v>
       </c>
       <c r="C153" t="n">
-        <v>1439259.5</v>
+        <v>2392177</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="B154" t="n">
-        <v>0.8262</v>
+        <v>0.9203</v>
       </c>
       <c r="C154" t="n">
-        <v>1564583.7</v>
+        <v>2062356.4</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>45630</v>
+        <v>45633</v>
       </c>
       <c r="B155" t="n">
-        <v>0.8068</v>
+        <v>0.8925999999999999</v>
       </c>
       <c r="C155" t="n">
-        <v>1315462.3</v>
+        <v>1144719.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>45631</v>
+        <v>45634</v>
       </c>
       <c r="B156" t="n">
-        <v>0.8416</v>
+        <v>0.8875</v>
       </c>
       <c r="C156" t="n">
-        <v>2392177</v>
+        <v>719436.9</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>45632</v>
+        <v>45635</v>
       </c>
       <c r="B157" t="n">
-        <v>0.9203</v>
+        <v>0.7672</v>
       </c>
       <c r="C157" t="n">
-        <v>2062356.4</v>
+        <v>1229997.7</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>45633</v>
+        <v>45636</v>
       </c>
       <c r="B158" t="n">
-        <v>0.8925999999999999</v>
+        <v>0.7309</v>
       </c>
       <c r="C158" t="n">
-        <v>1144719.5</v>
+        <v>1949006.1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>45634</v>
+        <v>45637</v>
       </c>
       <c r="B159" t="n">
-        <v>0.8875</v>
+        <v>0.783</v>
       </c>
       <c r="C159" t="n">
-        <v>719436.9</v>
+        <v>570284.2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>45635</v>
+        <v>45638</v>
       </c>
       <c r="B160" t="n">
-        <v>0.7672</v>
+        <v>0.7729</v>
       </c>
       <c r="C160" t="n">
-        <v>1229997.7</v>
+        <v>554078</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="B161" t="n">
-        <v>0.7309</v>
+        <v>0.778</v>
       </c>
       <c r="C161" t="n">
-        <v>1949006.1</v>
+        <v>530127.3</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>45637</v>
+        <v>45640</v>
       </c>
       <c r="B162" t="n">
-        <v>0.783</v>
+        <v>0.7431</v>
       </c>
       <c r="C162" t="n">
-        <v>570284.2</v>
+        <v>999416.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>45638</v>
+        <v>45641</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7729</v>
+        <v>0.778</v>
       </c>
       <c r="C163" t="n">
-        <v>554078</v>
+        <v>565734.3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>45639</v>
+        <v>45642</v>
       </c>
       <c r="B164" t="n">
-        <v>0.778</v>
+        <v>0.7423</v>
       </c>
       <c r="C164" t="n">
-        <v>530127.3</v>
+        <v>647303.6</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>45640</v>
+        <v>45643</v>
       </c>
       <c r="B165" t="n">
-        <v>0.7431</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>999416.1</v>
+        <v>779956.3</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>45641</v>
+        <v>45644</v>
       </c>
       <c r="B166" t="n">
-        <v>0.778</v>
+        <v>0.62</v>
       </c>
       <c r="C166" t="n">
-        <v>565734.3</v>
+        <v>611410.8</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>45642</v>
+        <v>45645</v>
       </c>
       <c r="B167" t="n">
-        <v>0.7423</v>
+        <v>0.6006</v>
       </c>
       <c r="C167" t="n">
-        <v>647303.6</v>
+        <v>743512.4</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>45643</v>
+        <v>45646</v>
       </c>
       <c r="B168" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.602</v>
       </c>
       <c r="C168" t="n">
-        <v>779956.3</v>
+        <v>704597.9</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>45644</v>
+        <v>45647</v>
       </c>
       <c r="B169" t="n">
-        <v>0.62</v>
+        <v>0.5624</v>
       </c>
       <c r="C169" t="n">
-        <v>611410.8</v>
+        <v>1170361.1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>45645</v>
+        <v>45648</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6006</v>
+        <v>0.546</v>
       </c>
       <c r="C170" t="n">
-        <v>743512.4</v>
+        <v>775508.1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>45646</v>
+        <v>45649</v>
       </c>
       <c r="B171" t="n">
-        <v>0.602</v>
+        <v>0.594</v>
       </c>
       <c r="C171" t="n">
-        <v>704597.9</v>
+        <v>847936.9</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>45647</v>
+        <v>45650</v>
       </c>
       <c r="B172" t="n">
-        <v>0.5624</v>
+        <v>0.6045</v>
       </c>
       <c r="C172" t="n">
-        <v>1170361.1</v>
+        <v>389763.6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>45648</v>
+        <v>45651</v>
       </c>
       <c r="B173" t="n">
-        <v>0.546</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>775508.1</v>
+        <v>670192.2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>45649</v>
+        <v>45652</v>
       </c>
       <c r="B174" t="n">
-        <v>0.594</v>
+        <v>0.547</v>
       </c>
       <c r="C174" t="n">
-        <v>847936.9</v>
+        <v>900056</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>45650</v>
+        <v>45653</v>
       </c>
       <c r="B175" t="n">
-        <v>0.6045</v>
+        <v>0.5676</v>
       </c>
       <c r="C175" t="n">
-        <v>389763.6</v>
+        <v>1176558.3</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>45651</v>
+        <v>45654</v>
       </c>
       <c r="B176" t="n">
-        <v>0.5822000000000001</v>
+        <v>0.5897</v>
       </c>
       <c r="C176" t="n">
-        <v>670192.2</v>
+        <v>1183360.5</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>45652</v>
+        <v>45655</v>
       </c>
       <c r="B177" t="n">
-        <v>0.547</v>
+        <v>0.5582</v>
       </c>
       <c r="C177" t="n">
-        <v>900056</v>
+        <v>1050205.7</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>45653</v>
+        <v>45656</v>
       </c>
       <c r="B178" t="n">
-        <v>0.5676</v>
+        <v>0.553</v>
       </c>
       <c r="C178" t="n">
-        <v>1176558.3</v>
+        <v>1187778.4</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>45654</v>
+        <v>45657</v>
       </c>
       <c r="B179" t="n">
-        <v>0.5897</v>
+        <v>0.5484</v>
       </c>
       <c r="C179" t="n">
-        <v>1183360.5</v>
+        <v>369305.2</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>45655</v>
+        <v>45658</v>
       </c>
       <c r="B180" t="n">
-        <v>0.5582</v>
+        <v>0.5672</v>
       </c>
       <c r="C180" t="n">
-        <v>1050205.7</v>
+        <v>789214.4</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>45656</v>
+        <v>45659</v>
       </c>
       <c r="B181" t="n">
-        <v>0.553</v>
+        <v>0.5956</v>
       </c>
       <c r="C181" t="n">
-        <v>1187778.4</v>
+        <v>436796.9</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>45657</v>
+        <v>45660</v>
       </c>
       <c r="B182" t="n">
-        <v>0.5484</v>
+        <v>0.6462</v>
       </c>
       <c r="C182" t="n">
-        <v>369305.2</v>
+        <v>813255.2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>45658</v>
+        <v>45661</v>
       </c>
       <c r="B183" t="n">
-        <v>0.5684</v>
+        <v>0.6448</v>
       </c>
       <c r="C183" t="n">
-        <v>789170.1</v>
+        <v>491211.2</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>45659</v>
+        <v>45662</v>
       </c>
       <c r="B184" t="n">
-        <v>0.599</v>
+        <v>0.6958</v>
       </c>
       <c r="C184" t="n">
-        <v>436800.1</v>
+        <v>874706.1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>45660</v>
+        <v>45663</v>
       </c>
       <c r="B185" t="n">
-        <v>0.65</v>
+        <v>0.7137</v>
       </c>
       <c r="C185" t="n">
-        <v>813404.6</v>
+        <v>591274</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>45661</v>
+        <v>45664</v>
       </c>
       <c r="B186" t="n">
-        <v>0.6417</v>
+        <v>0.6403</v>
       </c>
       <c r="C186" t="n">
-        <v>491225.3</v>
+        <v>446381.7</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>45662</v>
+        <v>45665</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6965</v>
+        <v>0.5849</v>
       </c>
       <c r="C187" t="n">
-        <v>874540</v>
+        <v>327624.4</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>45663</v>
+        <v>45666</v>
       </c>
       <c r="B188" t="n">
-        <v>0.7188</v>
+        <v>0.5793</v>
       </c>
       <c r="C188" t="n">
-        <v>597218.1</v>
+        <v>432953.5</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>45664</v>
+        <v>45667</v>
       </c>
       <c r="B189" t="n">
-        <v>0.6392</v>
+        <v>0.5881999999999999</v>
       </c>
       <c r="C189" t="n">
-        <v>446327.1</v>
+        <v>460876.8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>45665</v>
+        <v>45668</v>
       </c>
       <c r="B190" t="n">
-        <v>0.5848</v>
+        <v>0.5845</v>
       </c>
       <c r="C190" t="n">
-        <v>321980.9</v>
+        <v>159767.1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>45666</v>
+        <v>45669</v>
       </c>
       <c r="B191" t="n">
-        <v>0.5766</v>
+        <v>0.5743</v>
       </c>
       <c r="C191" t="n">
-        <v>435605.9</v>
+        <v>453937.7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B192" t="n">
-        <v>0.5879</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="C192" t="n">
-        <v>458223.9</v>
+        <v>790892.5</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>45668</v>
+        <v>45671</v>
       </c>
       <c r="B193" t="n">
-        <v>0.5843</v>
+        <v>0.5658</v>
       </c>
       <c r="C193" t="n">
-        <v>159535.6</v>
+        <v>371999.1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>45669</v>
+        <v>45672</v>
       </c>
       <c r="B194" t="n">
-        <v>0.5741000000000001</v>
+        <v>0.5903</v>
       </c>
       <c r="C194" t="n">
-        <v>453946.5</v>
+        <v>1373734.2</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>45670</v>
+        <v>45673</v>
       </c>
       <c r="B195" t="n">
-        <v>0.5467</v>
+        <v>0.5750999999999999</v>
       </c>
       <c r="C195" t="n">
-        <v>790875.5</v>
+        <v>538817.7</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B196" t="n">
-        <v>0.5664</v>
+        <v>0.608</v>
       </c>
       <c r="C196" t="n">
-        <v>376468.8</v>
+        <v>984964</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="B197" t="n">
-        <v>0.5903</v>
+        <v>0.5655</v>
       </c>
       <c r="C197" t="n">
-        <v>1372972.9</v>
+        <v>722658</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>45673</v>
+        <v>45676</v>
       </c>
       <c r="B198" t="n">
-        <v>0.5750999999999999</v>
+        <v>0.5225</v>
       </c>
       <c r="C198" t="n">
-        <v>538817.7</v>
+        <v>1743773.2</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B199" t="n">
-        <v>0.6092</v>
+        <v>0.5122</v>
       </c>
       <c r="C199" t="n">
-        <v>985590.9</v>
+        <v>577016</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>45675</v>
+        <v>45678</v>
       </c>
       <c r="B200" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5658</v>
       </c>
       <c r="C200" t="n">
-        <v>722037.1</v>
+        <v>693129.5</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>45676</v>
+        <v>45679</v>
       </c>
       <c r="B201" t="n">
-        <v>0.519</v>
+        <v>0.5541</v>
       </c>
       <c r="C201" t="n">
-        <v>1743767.8</v>
+        <v>875340.2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>45677</v>
+        <v>45680</v>
       </c>
       <c r="B202" t="n">
-        <v>0.5122</v>
+        <v>0.5361</v>
       </c>
       <c r="C202" t="n">
-        <v>577016</v>
+        <v>1287237.1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>45678</v>
+        <v>45681</v>
       </c>
       <c r="B203" t="n">
-        <v>0.5658</v>
+        <v>0.5309</v>
       </c>
       <c r="C203" t="n">
-        <v>693129.5</v>
+        <v>738107.3</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>45679</v>
+        <v>45682</v>
       </c>
       <c r="B204" t="n">
-        <v>0.5541</v>
+        <v>0.5171</v>
       </c>
       <c r="C204" t="n">
-        <v>875340.2</v>
+        <v>606768.5</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>45680</v>
+        <v>45683</v>
       </c>
       <c r="B205" t="n">
-        <v>0.5376</v>
+        <v>0.5101</v>
       </c>
       <c r="C205" t="n">
-        <v>1287053.4</v>
+        <v>836276.7</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>45681</v>
+        <v>45684</v>
       </c>
       <c r="B206" t="n">
-        <v>0.5291</v>
+        <v>0.4824</v>
       </c>
       <c r="C206" t="n">
-        <v>738064.6</v>
+        <v>1302484.9</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>45682</v>
+        <v>45685</v>
       </c>
       <c r="B207" t="n">
-        <v>0.5199</v>
+        <v>0.43</v>
       </c>
       <c r="C207" t="n">
-        <v>613666.3</v>
+        <v>886200.5</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>45683</v>
+        <v>45686</v>
       </c>
       <c r="B208" t="n">
-        <v>0.51</v>
+        <v>0.43</v>
       </c>
       <c r="C208" t="n">
-        <v>829344.3</v>
+        <v>842097.2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>45684</v>
+        <v>45687</v>
       </c>
       <c r="B209" t="n">
-        <v>0.4843</v>
+        <v>0.4533</v>
       </c>
       <c r="C209" t="n">
-        <v>1303612.2</v>
+        <v>510335.2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>45685</v>
+        <v>45688</v>
       </c>
       <c r="B210" t="n">
-        <v>0.4299</v>
+        <v>0.4444</v>
       </c>
       <c r="C210" t="n">
-        <v>885166.2</v>
+        <v>703292.8</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>45686</v>
+        <v>45689</v>
       </c>
       <c r="B211" t="n">
-        <v>0.4278</v>
+        <v>0.4043</v>
       </c>
       <c r="C211" t="n">
-        <v>843372.2</v>
+        <v>988582.8</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>45687</v>
+        <v>45690</v>
       </c>
       <c r="B212" t="n">
-        <v>0.4524</v>
+        <v>0.36</v>
       </c>
       <c r="C212" t="n">
-        <v>509210.2</v>
+        <v>1077242.2</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>45688</v>
+        <v>45691</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4435</v>
+        <v>0.379</v>
       </c>
       <c r="C213" t="n">
-        <v>703098.7</v>
+        <v>1294599.4</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>45689</v>
+        <v>45692</v>
       </c>
       <c r="B214" t="n">
-        <v>0.4034</v>
+        <v>0.3572</v>
       </c>
       <c r="C214" t="n">
-        <v>990610.7</v>
+        <v>487992</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>45690</v>
+        <v>45693</v>
       </c>
       <c r="B215" t="n">
-        <v>0.3626</v>
+        <v>0.3426</v>
       </c>
       <c r="C215" t="n">
-        <v>1075252.4</v>
+        <v>230019</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>45691</v>
+        <v>45694</v>
       </c>
       <c r="B216" t="n">
-        <v>0.3836</v>
+        <v>0.334</v>
       </c>
       <c r="C216" t="n">
-        <v>1297055.7</v>
+        <v>238128.5</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>45692</v>
+        <v>45695</v>
       </c>
       <c r="B217" t="n">
-        <v>0.3574</v>
+        <v>0.327</v>
       </c>
       <c r="C217" t="n">
-        <v>485445.6</v>
+        <v>375670.3</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>45693</v>
+        <v>45696</v>
       </c>
       <c r="B218" t="n">
-        <v>0.3449</v>
+        <v>0.335</v>
       </c>
       <c r="C218" t="n">
-        <v>230019.2</v>
+        <v>189666.8</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>45694</v>
+        <v>45697</v>
       </c>
       <c r="B219" t="n">
-        <v>0.3357</v>
+        <v>0.3486</v>
       </c>
       <c r="C219" t="n">
-        <v>238862.4</v>
+        <v>549839.9</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>45695</v>
+        <v>45698</v>
       </c>
       <c r="B220" t="n">
-        <v>0.327</v>
+        <v>0.3425</v>
       </c>
       <c r="C220" t="n">
-        <v>374932.7</v>
+        <v>341650.3</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>45696</v>
+        <v>45699</v>
       </c>
       <c r="B221" t="n">
-        <v>0.332</v>
+        <v>0.3394</v>
       </c>
       <c r="C221" t="n">
-        <v>190424.1</v>
+        <v>396373</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>45697</v>
+        <v>45700</v>
       </c>
       <c r="B222" t="n">
-        <v>0.3487</v>
+        <v>0.3591</v>
       </c>
       <c r="C222" t="n">
-        <v>549363.2</v>
+        <v>368233</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>45698</v>
+        <v>45701</v>
       </c>
       <c r="B223" t="n">
         <v>0.3438</v>
       </c>
       <c r="C223" t="n">
-        <v>341425.7</v>
+        <v>306778</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>45699</v>
+        <v>45702</v>
       </c>
       <c r="B224" t="n">
-        <v>0.3393</v>
+        <v>0.3509</v>
       </c>
       <c r="C224" t="n">
-        <v>396941.6</v>
+        <v>517038.3</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>45700</v>
+        <v>45703</v>
       </c>
       <c r="B225" t="n">
-        <v>0.3591</v>
+        <v>0.3412</v>
       </c>
       <c r="C225" t="n">
-        <v>367681.2</v>
+        <v>375981.1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>45701</v>
+        <v>45704</v>
       </c>
       <c r="B226" t="n">
-        <v>0.3438</v>
+        <v>0.3498</v>
       </c>
       <c r="C226" t="n">
-        <v>306778</v>
+        <v>113517.6</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>45702</v>
+        <v>45705</v>
       </c>
       <c r="B227" t="n">
-        <v>0.3516</v>
+        <v>0.3499</v>
       </c>
       <c r="C227" t="n">
-        <v>509927</v>
+        <v>173607.3</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>45703</v>
+        <v>45706</v>
       </c>
       <c r="B228" t="n">
-        <v>0.3412</v>
+        <v>0.3233</v>
       </c>
       <c r="C228" t="n">
-        <v>375439.4</v>
+        <v>308586.6</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>45704</v>
+        <v>45707</v>
       </c>
       <c r="B229" t="n">
-        <v>0.347</v>
+        <v>0.3288</v>
       </c>
       <c r="C229" t="n">
-        <v>113547.6</v>
+        <v>311662.5</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>45705</v>
+        <v>45708</v>
       </c>
       <c r="B230" t="n">
-        <v>0.3506</v>
+        <v>0.3369</v>
       </c>
       <c r="C230" t="n">
-        <v>173541.5</v>
+        <v>195304.8</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>45706</v>
+        <v>45709</v>
       </c>
       <c r="B231" t="n">
-        <v>0.3233</v>
+        <v>0.3331</v>
       </c>
       <c r="C231" t="n">
-        <v>308875.8</v>
+        <v>691962.4</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>45707</v>
+        <v>45710</v>
       </c>
       <c r="B232" t="n">
-        <v>0.3272</v>
+        <v>0.3464</v>
       </c>
       <c r="C232" t="n">
-        <v>314925.1</v>
+        <v>396381.2</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>45708</v>
+        <v>45711</v>
       </c>
       <c r="B233" t="n">
-        <v>0.3367</v>
+        <v>0.3458</v>
       </c>
       <c r="C233" t="n">
-        <v>192091.3</v>
+        <v>146727</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>45709</v>
+        <v>45712</v>
       </c>
       <c r="B234" t="n">
-        <v>0.3323</v>
+        <v>0.3143</v>
       </c>
       <c r="C234" t="n">
-        <v>691697.9</v>
+        <v>306717.7</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>45710</v>
+        <v>45713</v>
       </c>
       <c r="B235" t="n">
-        <v>0.3462</v>
+        <v>0.3047</v>
       </c>
       <c r="C235" t="n">
-        <v>396518.4</v>
+        <v>844355.8</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>45711</v>
+        <v>45714</v>
       </c>
       <c r="B236" t="n">
-        <v>0.3457</v>
+        <v>0.2943</v>
       </c>
       <c r="C236" t="n">
-        <v>146630.8</v>
+        <v>377079</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>45712</v>
+        <v>45715</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3139</v>
+        <v>0.2863</v>
       </c>
       <c r="C237" t="n">
-        <v>307185.4</v>
+        <v>579830.9</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>45713</v>
+        <v>45716</v>
       </c>
       <c r="B238" t="n">
-        <v>0.3054</v>
+        <v>0.2861</v>
       </c>
       <c r="C238" t="n">
-        <v>844100.6</v>
+        <v>597617.6</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>45714</v>
+        <v>45717</v>
       </c>
       <c r="B239" t="n">
-        <v>0.2942</v>
+        <v>0.2805</v>
       </c>
       <c r="C239" t="n">
-        <v>377080.7</v>
+        <v>200524.1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>45715</v>
+        <v>45718</v>
       </c>
       <c r="B240" t="n">
-        <v>0.2823</v>
+        <v>0.3233</v>
       </c>
       <c r="C240" t="n">
-        <v>580197.8</v>
+        <v>543786.4</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>45716</v>
+        <v>45719</v>
       </c>
       <c r="B241" t="n">
-        <v>0.2843</v>
+        <v>0.2765</v>
       </c>
       <c r="C241" t="n">
-        <v>596952.5</v>
+        <v>1306274.2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>45717</v>
+        <v>45720</v>
       </c>
       <c r="B242" t="n">
-        <v>0.2814</v>
+        <v>0.2687</v>
       </c>
       <c r="C242" t="n">
-        <v>200742.6</v>
+        <v>448902.6</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>45718</v>
+        <v>45721</v>
       </c>
       <c r="B243" t="n">
-        <v>0.3243</v>
+        <v>0.2732</v>
       </c>
       <c r="C243" t="n">
-        <v>546297.4</v>
+        <v>249652.6</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>45719</v>
+        <v>45722</v>
       </c>
       <c r="B244" t="n">
-        <v>0.2801</v>
+        <v>0.2788</v>
       </c>
       <c r="C244" t="n">
-        <v>1304837.3</v>
+        <v>357982.8</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>45720</v>
+        <v>45723</v>
       </c>
       <c r="B245" t="n">
-        <v>0.2686</v>
+        <v>0.2638</v>
       </c>
       <c r="C245" t="n">
-        <v>449067.7</v>
+        <v>320186.2</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>45721</v>
+        <v>45724</v>
       </c>
       <c r="B246" t="n">
-        <v>0.2726</v>
+        <v>0.2662</v>
       </c>
       <c r="C246" t="n">
-        <v>248217.9</v>
+        <v>335757.3</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>45722</v>
+        <v>45725</v>
       </c>
       <c r="B247" t="n">
-        <v>0.276</v>
+        <v>0.2368</v>
       </c>
       <c r="C247" t="n">
-        <v>359136.5</v>
+        <v>866170.4</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>45723</v>
+        <v>45726</v>
       </c>
       <c r="B248" t="n">
-        <v>0.2623</v>
+        <v>0.216</v>
       </c>
       <c r="C248" t="n">
-        <v>323393.5</v>
+        <v>458114</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>45724</v>
+        <v>45727</v>
       </c>
       <c r="B249" t="n">
-        <v>0.2654</v>
+        <v>0.2153</v>
       </c>
       <c r="C249" t="n">
-        <v>331604.4</v>
+        <v>357617.1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>45725</v>
+        <v>45728</v>
       </c>
       <c r="B250" t="n">
-        <v>0.2435</v>
+        <v>0.2174</v>
       </c>
       <c r="C250" t="n">
-        <v>865915.9</v>
+        <v>961280.2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>45726</v>
+        <v>45729</v>
       </c>
       <c r="B251" t="n">
-        <v>0.2167</v>
+        <v>0.2148</v>
       </c>
       <c r="C251" t="n">
-        <v>458289.9</v>
+        <v>678733.7</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>45727</v>
+        <v>45730</v>
       </c>
       <c r="B252" t="n">
-        <v>0.217</v>
+        <v>0.231</v>
       </c>
       <c r="C252" t="n">
-        <v>357437.6</v>
+        <v>482560.9</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>45728</v>
+        <v>45731</v>
       </c>
       <c r="B253" t="n">
-        <v>0.2184</v>
+        <v>0.2287</v>
       </c>
       <c r="C253" t="n">
-        <v>975785.6</v>
+        <v>114580.2</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>45729</v>
+        <v>45732</v>
       </c>
       <c r="B254" t="n">
-        <v>0.214</v>
+        <v>0.222</v>
       </c>
       <c r="C254" t="n">
-        <v>664344.8</v>
+        <v>394273.2</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>45730</v>
+        <v>45733</v>
       </c>
       <c r="B255" t="n">
-        <v>0.2316</v>
+        <v>0.236</v>
       </c>
       <c r="C255" t="n">
-        <v>482446.3</v>
+        <v>217826.6</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>45731</v>
+        <v>45734</v>
       </c>
       <c r="B256" t="n">
-        <v>0.2276</v>
+        <v>0.2354</v>
       </c>
       <c r="C256" t="n">
-        <v>116590.1</v>
+        <v>284848.6</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>45732</v>
+        <v>45735</v>
       </c>
       <c r="B257" t="n">
-        <v>0.2234</v>
+        <v>0.2427</v>
       </c>
       <c r="C257" t="n">
-        <v>392261.3</v>
+        <v>152686.2</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="B258" t="n">
-        <v>0.2361</v>
+        <v>0.2303</v>
       </c>
       <c r="C258" t="n">
-        <v>217892.2</v>
+        <v>208390.9</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>45734</v>
+        <v>45737</v>
       </c>
       <c r="B259" t="n">
-        <v>0.2352</v>
+        <v>0.2297</v>
       </c>
       <c r="C259" t="n">
-        <v>284821.1</v>
+        <v>141501.8</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>45735</v>
+        <v>45738</v>
       </c>
       <c r="B260" t="n">
-        <v>0.2427</v>
+        <v>0.2316</v>
       </c>
       <c r="C260" t="n">
-        <v>152643.7</v>
+        <v>110794.4</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>45736</v>
+        <v>45739</v>
       </c>
       <c r="B261" t="n">
-        <v>0.2314</v>
+        <v>0.234</v>
       </c>
       <c r="C261" t="n">
-        <v>208412.3</v>
+        <v>109505</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>45737</v>
+        <v>45740</v>
       </c>
       <c r="B262" t="n">
-        <v>0.231</v>
+        <v>0.247</v>
       </c>
       <c r="C262" t="n">
-        <v>143196.2</v>
+        <v>173360.4</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>45738</v>
+        <v>45741</v>
       </c>
       <c r="B263" t="n">
-        <v>0.23</v>
+        <v>0.2481</v>
       </c>
       <c r="C263" t="n">
-        <v>110403.6</v>
+        <v>219301.4</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>45739</v>
+        <v>45742</v>
       </c>
       <c r="B264" t="n">
-        <v>0.2359</v>
+        <v>0.2508</v>
       </c>
       <c r="C264" t="n">
-        <v>108221.1</v>
+        <v>274435.2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>45740</v>
+        <v>45743</v>
       </c>
       <c r="B265" t="n">
-        <v>0.2466</v>
+        <v>0.2433</v>
       </c>
       <c r="C265" t="n">
-        <v>173391.8</v>
+        <v>166966.7</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>45741</v>
+        <v>45744</v>
       </c>
       <c r="B266" t="n">
-        <v>0.2504</v>
+        <v>0.235</v>
       </c>
       <c r="C266" t="n">
-        <v>226987.3</v>
+        <v>179137.7</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>45742</v>
+        <v>45745</v>
       </c>
       <c r="B267" t="n">
-        <v>0.2509</v>
+        <v>0.2147</v>
       </c>
       <c r="C267" t="n">
-        <v>266684.6</v>
+        <v>392816.4</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="B268" t="n">
-        <v>0.2434</v>
+        <v>0.219</v>
       </c>
       <c r="C268" t="n">
-        <v>2641.9</v>
+        <v>448869.4</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>45744</v>
+        <v>45747</v>
       </c>
       <c r="B269" t="n">
-        <v>0.2345</v>
+        <v>0.2101</v>
       </c>
       <c r="C269" t="n">
-        <v>179006.5</v>
+        <v>575607.2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>45745</v>
+        <v>45748</v>
       </c>
       <c r="B270" t="n">
-        <v>0.2148</v>
+        <v>0.22</v>
       </c>
       <c r="C270" t="n">
-        <v>395026.7</v>
+        <v>395910.9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>45746</v>
+        <v>45749</v>
       </c>
       <c r="B271" t="n">
-        <v>0.219</v>
+        <v>0.2102</v>
       </c>
       <c r="C271" t="n">
-        <v>447125.7</v>
+        <v>437197.8</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>45747</v>
+        <v>45750</v>
       </c>
       <c r="B272" t="n">
-        <v>0.2118</v>
+        <v>0.2052</v>
       </c>
       <c r="C272" t="n">
-        <v>575121.4</v>
+        <v>426342.9</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>45748</v>
+        <v>45751</v>
       </c>
       <c r="B273" t="n">
-        <v>0.2213</v>
+        <v>0.1986</v>
       </c>
       <c r="C273" t="n">
-        <v>396235.6</v>
+        <v>564501.1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>45749</v>
+        <v>45752</v>
       </c>
       <c r="B274" t="n">
-        <v>0.2106</v>
+        <v>0.1989</v>
       </c>
       <c r="C274" t="n">
-        <v>436761.2</v>
+        <v>459375.1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>45750</v>
+        <v>45753</v>
       </c>
       <c r="B275" t="n">
-        <v>0.2071</v>
+        <v>0.176</v>
       </c>
       <c r="C275" t="n">
-        <v>426798.3</v>
+        <v>459934.5</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>45751</v>
+        <v>45754</v>
       </c>
       <c r="B276" t="n">
-        <v>0.1966</v>
+        <v>0.1772</v>
       </c>
       <c r="C276" t="n">
-        <v>564047.6</v>
+        <v>640975.9</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>45752</v>
+        <v>45755</v>
       </c>
       <c r="B277" t="n">
-        <v>0.2018</v>
+        <v>0.1707</v>
       </c>
       <c r="C277" t="n">
-        <v>459417.9</v>
+        <v>372748</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>45753</v>
+        <v>45756</v>
       </c>
       <c r="B278" t="n">
-        <v>0.173</v>
+        <v>0.1953</v>
       </c>
       <c r="C278" t="n">
-        <v>461054.8</v>
+        <v>471586.4</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45754</v>
+        <v>45757</v>
       </c>
       <c r="B279" t="n">
-        <v>0.1789</v>
+        <v>0.1898</v>
       </c>
       <c r="C279" t="n">
-        <v>640055.4</v>
+        <v>219777.4</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45755</v>
+        <v>45758</v>
       </c>
       <c r="B280" t="n">
-        <v>0.174</v>
+        <v>0.2011</v>
       </c>
       <c r="C280" t="n">
-        <v>378182.1</v>
+        <v>255770.9</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>45756</v>
+        <v>45759</v>
       </c>
       <c r="B281" t="n">
-        <v>0.195</v>
+        <v>0.216</v>
       </c>
       <c r="C281" t="n">
-        <v>478526.8</v>
+        <v>231533.6</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>45757</v>
+        <v>45760</v>
       </c>
       <c r="B282" t="n">
-        <v>0.1904</v>
+        <v>0.2721</v>
       </c>
       <c r="C282" t="n">
-        <v>207156.3</v>
+        <v>18816946.2</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>45758</v>
+        <v>45761</v>
       </c>
       <c r="B283" t="n">
-        <v>0.2008</v>
+        <v>0.2364</v>
       </c>
       <c r="C283" t="n">
-        <v>255780.3</v>
+        <v>8665237.800000001</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>45759</v>
+        <v>45762</v>
       </c>
       <c r="B284" t="n">
-        <v>0.216</v>
+        <v>0.2097</v>
       </c>
       <c r="C284" t="n">
-        <v>231532.9</v>
+        <v>1901390</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>45760</v>
+        <v>45763</v>
       </c>
       <c r="B285" t="n">
-        <v>0.2704</v>
+        <v>0.2139</v>
       </c>
       <c r="C285" t="n">
-        <v>18817118.6</v>
+        <v>1290185.1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>45761</v>
+        <v>45764</v>
       </c>
       <c r="B286" t="n">
-        <v>0.2346</v>
+        <v>0.216</v>
       </c>
       <c r="C286" t="n">
-        <v>8665521.699999999</v>
+        <v>1644974.8</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>45762</v>
+        <v>45765</v>
       </c>
       <c r="B287" t="n">
-        <v>0.2097</v>
+        <v>0.2197</v>
       </c>
       <c r="C287" t="n">
-        <v>1900924.6</v>
+        <v>2065080.1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>45763</v>
+        <v>45766</v>
       </c>
       <c r="B288" t="n">
-        <v>0.2126</v>
+        <v>0.2508</v>
       </c>
       <c r="C288" t="n">
-        <v>1293838.9</v>
+        <v>3314715.5</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>45764</v>
+        <v>45767</v>
       </c>
       <c r="B289" t="n">
-        <v>0.217</v>
+        <v>0.2619</v>
       </c>
       <c r="C289" t="n">
-        <v>1644945.7</v>
+        <v>11570904.6</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45765</v>
+        <v>45768</v>
       </c>
       <c r="B290" t="n">
-        <v>0.2198</v>
+        <v>0.2653</v>
       </c>
       <c r="C290" t="n">
-        <v>2065033.5</v>
+        <v>1942729.6</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45766</v>
+        <v>45769</v>
       </c>
       <c r="B291" t="n">
-        <v>0.2503</v>
+        <v>0.2763</v>
       </c>
       <c r="C291" t="n">
-        <v>3324431</v>
+        <v>3664651.8</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>45767</v>
+        <v>45770</v>
       </c>
       <c r="B292" t="n">
-        <v>0.2616</v>
+        <v>0.2698</v>
       </c>
       <c r="C292" t="n">
-        <v>11568978.3</v>
+        <v>1417926.1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>45768</v>
+        <v>45771</v>
       </c>
       <c r="B293" t="n">
-        <v>0.2659</v>
+        <v>0.314</v>
       </c>
       <c r="C293" t="n">
-        <v>1965828.7</v>
+        <v>3528258.7</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>45769</v>
+        <v>45772</v>
       </c>
       <c r="B294" t="n">
-        <v>0.2763</v>
+        <v>0.3219</v>
       </c>
       <c r="C294" t="n">
-        <v>3664293.4</v>
+        <v>2657792.5</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>45770</v>
+        <v>45773</v>
       </c>
       <c r="B295" t="n">
-        <v>0.2698</v>
+        <v>0.3347</v>
       </c>
       <c r="C295" t="n">
-        <v>1417926.1</v>
+        <v>1876069.7</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>45771</v>
+        <v>45774</v>
       </c>
       <c r="B296" t="n">
-        <v>0.3154</v>
+        <v>0.3149</v>
       </c>
       <c r="C296" t="n">
-        <v>3526378.4</v>
+        <v>1103456.9</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45772</v>
+        <v>45775</v>
       </c>
       <c r="B297" t="n">
-        <v>0.3219</v>
+        <v>0.3103</v>
       </c>
       <c r="C297" t="n">
-        <v>2657697.3</v>
+        <v>1459746.2</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45773</v>
+        <v>45776</v>
       </c>
       <c r="B298" t="n">
-        <v>0.335</v>
+        <v>0.3037</v>
       </c>
       <c r="C298" t="n">
-        <v>1876547.7</v>
+        <v>1441406.9</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>45774</v>
+        <v>45777</v>
       </c>
       <c r="B299" t="n">
-        <v>0.3132</v>
+        <v>0.3189</v>
       </c>
       <c r="C299" t="n">
-        <v>1102985.7</v>
+        <v>1598286.9</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>45775</v>
+        <v>45778</v>
       </c>
       <c r="B300" t="n">
-        <v>0.3103</v>
+        <v>0.317</v>
       </c>
       <c r="C300" t="n">
-        <v>1459739.4</v>
+        <v>1950498.1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>45776</v>
+        <v>45779</v>
       </c>
       <c r="B301" t="n">
-        <v>0.3038</v>
+        <v>0.3074</v>
       </c>
       <c r="C301" t="n">
-        <v>1441595</v>
+        <v>675505.8</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>45777</v>
+        <v>45780</v>
       </c>
       <c r="B302" t="n">
-        <v>0.3193</v>
+        <v>0.2963</v>
       </c>
       <c r="C302" t="n">
-        <v>1598600.3</v>
+        <v>287267.5</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>45778</v>
+        <v>45781</v>
       </c>
       <c r="B303" t="n">
-        <v>0.3174</v>
+        <v>0.293</v>
       </c>
       <c r="C303" t="n">
-        <v>1951244.6</v>
+        <v>258915.8</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>45779</v>
+        <v>45782</v>
       </c>
       <c r="B304" t="n">
-        <v>0.3079</v>
+        <v>0.2873</v>
       </c>
       <c r="C304" t="n">
-        <v>676850.3</v>
+        <v>222626.9</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>45780</v>
+        <v>45783</v>
       </c>
       <c r="B305" t="n">
-        <v>0.2997</v>
+        <v>0.2956</v>
       </c>
       <c r="C305" t="n">
-        <v>285438.7</v>
+        <v>726610.5</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>45781</v>
+        <v>45784</v>
       </c>
       <c r="B306" t="n">
-        <v>0.2922</v>
+        <v>0.2921</v>
       </c>
       <c r="C306" t="n">
-        <v>272101.4</v>
+        <v>716526.9</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>45782</v>
+        <v>45785</v>
       </c>
       <c r="B307" t="n">
-        <v>0.2884</v>
+        <v>0.3372</v>
       </c>
       <c r="C307" t="n">
-        <v>209179.8</v>
+        <v>1030896.6</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>45783</v>
+        <v>45786</v>
       </c>
       <c r="B308" t="n">
-        <v>0.2954</v>
+        <v>0.3579</v>
       </c>
       <c r="C308" t="n">
-        <v>729116</v>
+        <v>1300376.4</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>45784</v>
+        <v>45787</v>
       </c>
       <c r="B309" t="n">
-        <v>0.293</v>
+        <v>0.3869</v>
       </c>
       <c r="C309" t="n">
-        <v>717855.3</v>
+        <v>281172</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>45785</v>
+        <v>45788</v>
       </c>
       <c r="B310" t="n">
-        <v>0.3379</v>
+        <v>0.3636</v>
       </c>
       <c r="C310" t="n">
-        <v>1028492.1</v>
+        <v>547742</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>45786</v>
+        <v>45789</v>
       </c>
       <c r="B311" t="n">
-        <v>0.3631</v>
+        <v>0.3603</v>
       </c>
       <c r="C311" t="n">
-        <v>1300055.6</v>
+        <v>778308.4</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>45787</v>
+        <v>45790</v>
       </c>
       <c r="B312" t="n">
-        <v>0.3859</v>
+        <v>0.3844</v>
       </c>
       <c r="C312" t="n">
-        <v>284839</v>
+        <v>755093.8</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>45788</v>
+        <v>45791</v>
       </c>
       <c r="B313" t="n">
-        <v>0.3652</v>
+        <v>0.3615</v>
       </c>
       <c r="C313" t="n">
-        <v>543359.3</v>
+        <v>438221.3</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>45789</v>
+        <v>45792</v>
       </c>
       <c r="B314" t="n">
-        <v>0.3591</v>
+        <v>0.3407</v>
       </c>
       <c r="C314" t="n">
-        <v>778253.1</v>
+        <v>888459.5</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>45790</v>
+        <v>45793</v>
       </c>
       <c r="B315" t="n">
-        <v>0.3847</v>
+        <v>0.3383</v>
       </c>
       <c r="C315" t="n">
-        <v>755793.8</v>
+        <v>223422</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>45791</v>
+        <v>45794</v>
       </c>
       <c r="B316" t="n">
-        <v>0.3605</v>
+        <v>0.3275</v>
       </c>
       <c r="C316" t="n">
-        <v>439107.3</v>
+        <v>143314.8</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>45792</v>
+        <v>45795</v>
       </c>
       <c r="B317" t="n">
-        <v>0.3396</v>
+        <v>0.337</v>
       </c>
       <c r="C317" t="n">
-        <v>886413.2</v>
+        <v>287177.8</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>45793</v>
+        <v>45796</v>
       </c>
       <c r="B318" t="n">
-        <v>0.3385</v>
+        <v>0.3257</v>
       </c>
       <c r="C318" t="n">
-        <v>223409.3</v>
+        <v>222750.9</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>45794</v>
+        <v>45797</v>
       </c>
       <c r="B319" t="n">
-        <v>0.327</v>
+        <v>0.3308</v>
       </c>
       <c r="C319" t="n">
-        <v>143188</v>
+        <v>156347.6</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>45795</v>
+        <v>45798</v>
       </c>
       <c r="B320" t="n">
-        <v>0.3378</v>
+        <v>0.3532</v>
       </c>
       <c r="C320" t="n">
-        <v>287526.5</v>
+        <v>424089.6</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>45796</v>
+        <v>45799</v>
       </c>
       <c r="B321" t="n">
-        <v>0.3269</v>
+        <v>0.3815</v>
       </c>
       <c r="C321" t="n">
-        <v>222375</v>
+        <v>855503.8</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>45797</v>
+        <v>45800</v>
       </c>
       <c r="B322" t="n">
-        <v>0.3334</v>
+        <v>0.3678</v>
       </c>
       <c r="C322" t="n">
-        <v>157006.4</v>
+        <v>3097072.6</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45798</v>
+        <v>45801</v>
       </c>
       <c r="B323" t="n">
-        <v>0.3549</v>
+        <v>0.3697</v>
       </c>
       <c r="C323" t="n">
-        <v>423561.9</v>
+        <v>524644.2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="B324" t="n">
-        <v>0.3823</v>
+        <v>0.3681</v>
       </c>
       <c r="C324" t="n">
-        <v>855445.9</v>
+        <v>635775.7</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45800</v>
+        <v>45803</v>
       </c>
       <c r="B325" t="n">
-        <v>0.3664</v>
+        <v>0.3965</v>
       </c>
       <c r="C325" t="n">
-        <v>3096996.5</v>
+        <v>3876053.7</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45801</v>
+        <v>45804</v>
       </c>
       <c r="B326" t="n">
-        <v>0.3703</v>
+        <v>0.3893</v>
       </c>
       <c r="C326" t="n">
-        <v>525217</v>
+        <v>1180243.4</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45802</v>
+        <v>45805</v>
       </c>
       <c r="B327" t="n">
-        <v>0.3682</v>
+        <v>0.3963</v>
       </c>
       <c r="C327" t="n">
-        <v>635203.1</v>
+        <v>715072.1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45803</v>
+        <v>45806</v>
       </c>
       <c r="B328" t="n">
-        <v>0.3965</v>
+        <v>0.3737</v>
       </c>
       <c r="C328" t="n">
-        <v>3876053.4</v>
+        <v>424169</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45804</v>
+        <v>45807</v>
       </c>
       <c r="B329" t="n">
-        <v>0.3896</v>
+        <v>0.3491</v>
       </c>
       <c r="C329" t="n">
-        <v>1180264.1</v>
+        <v>599403.4</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45805</v>
+        <v>45808</v>
       </c>
       <c r="B330" t="n">
-        <v>0.395</v>
+        <v>0.3512</v>
       </c>
       <c r="C330" t="n">
-        <v>715238.7</v>
+        <v>340706</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45806</v>
+        <v>45809</v>
       </c>
       <c r="B331" t="n">
-        <v>0.3738</v>
+        <v>0.364</v>
       </c>
       <c r="C331" t="n">
-        <v>421789</v>
+        <v>274804</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45807</v>
+        <v>45810</v>
       </c>
       <c r="B332" t="n">
-        <v>0.3483</v>
+        <v>0.3493</v>
       </c>
       <c r="C332" t="n">
-        <v>599225.5</v>
+        <v>293513</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45808</v>
+        <v>45811</v>
       </c>
       <c r="B333" t="n">
-        <v>0.3503</v>
+        <v>0.3582</v>
       </c>
       <c r="C333" t="n">
-        <v>341068.2</v>
+        <v>378698.5</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45809</v>
+        <v>45812</v>
       </c>
       <c r="B334" t="n">
-        <v>0.3638</v>
+        <v>0.3521</v>
       </c>
       <c r="C334" t="n">
-        <v>274443.5</v>
+        <v>448215.6</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45810</v>
+        <v>45813</v>
       </c>
       <c r="B335" t="n">
-        <v>0.3503</v>
+        <v>0.3217</v>
       </c>
       <c r="C335" t="n">
-        <v>293692</v>
+        <v>345473.4</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45811</v>
+        <v>45814</v>
       </c>
       <c r="B336" t="n">
-        <v>0.3599</v>
+        <v>0.3245</v>
       </c>
       <c r="C336" t="n">
-        <v>378538</v>
+        <v>292286.9</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45812</v>
+        <v>45815</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3536</v>
+        <v>0.337</v>
       </c>
       <c r="C337" t="n">
-        <v>448200.1</v>
+        <v>530081.3</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45813</v>
+        <v>45816</v>
       </c>
       <c r="B338" t="n">
-        <v>0.3248</v>
+        <v>0.3375</v>
       </c>
       <c r="C338" t="n">
-        <v>346062.7</v>
+        <v>267207.8</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="B339" t="n">
-        <v>0.3258</v>
+        <v>0.3516</v>
       </c>
       <c r="C339" t="n">
-        <v>292678.1</v>
+        <v>742369.8</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45815</v>
+        <v>45818</v>
       </c>
       <c r="B340" t="n">
-        <v>0.3377</v>
+        <v>0.3623</v>
       </c>
       <c r="C340" t="n">
-        <v>529272.9</v>
+        <v>557232.4</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45816</v>
+        <v>45819</v>
       </c>
       <c r="B341" t="n">
-        <v>0.3375</v>
+        <v>0.3363</v>
       </c>
       <c r="C341" t="n">
-        <v>267104.7</v>
+        <v>1536131.4</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45817</v>
+        <v>45820</v>
       </c>
       <c r="B342" t="n">
-        <v>0.3507</v>
+        <v>0.3108</v>
       </c>
       <c r="C342" t="n">
-        <v>742383.4</v>
+        <v>1359568.4</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45818</v>
+        <v>45821</v>
       </c>
       <c r="B343" t="n">
-        <v>0.3621</v>
+        <v>0.2993</v>
       </c>
       <c r="C343" t="n">
-        <v>557312.9</v>
+        <v>652601.2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45819</v>
+        <v>45822</v>
       </c>
       <c r="B344" t="n">
-        <v>0.3369</v>
+        <v>0.2972</v>
       </c>
       <c r="C344" t="n">
-        <v>1536290.3</v>
+        <v>302116.8</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45820</v>
+        <v>45823</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3099</v>
+        <v>0.3066</v>
       </c>
       <c r="C345" t="n">
-        <v>1359399.5</v>
+        <v>143233.6</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45821</v>
+        <v>45824</v>
       </c>
       <c r="B346" t="n">
-        <v>0.2992</v>
+        <v>0.3091</v>
       </c>
       <c r="C346" t="n">
-        <v>652521.1</v>
+        <v>317747</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45822</v>
+        <v>45825</v>
       </c>
       <c r="B347" t="n">
-        <v>0.2969</v>
+        <v>0.2899</v>
       </c>
       <c r="C347" t="n">
-        <v>302338.9</v>
+        <v>291986.2</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45823</v>
+        <v>45826</v>
       </c>
       <c r="B348" t="n">
-        <v>0.3063</v>
+        <v>0.2984</v>
       </c>
       <c r="C348" t="n">
-        <v>143011.7</v>
+        <v>398968.4</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45824</v>
+        <v>45827</v>
       </c>
       <c r="B349" t="n">
-        <v>0.3064</v>
+        <v>0.2992</v>
       </c>
       <c r="C349" t="n">
-        <v>318015.3</v>
+        <v>532967.2</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45825</v>
+        <v>45828</v>
       </c>
       <c r="B350" t="n">
-        <v>0.2912</v>
+        <v>0.2865</v>
       </c>
       <c r="C350" t="n">
-        <v>294827.2</v>
+        <v>676402.6</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45826</v>
+        <v>45829</v>
       </c>
       <c r="B351" t="n">
-        <v>0.2984</v>
+        <v>0.2706</v>
       </c>
       <c r="C351" t="n">
-        <v>395860</v>
+        <v>221210.2</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45827</v>
+        <v>45830</v>
       </c>
       <c r="B352" t="n">
-        <v>0.2989</v>
+        <v>0.2579</v>
       </c>
       <c r="C352" t="n">
-        <v>535956.2</v>
+        <v>600915.6</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45828</v>
+        <v>45831</v>
       </c>
       <c r="B353" t="n">
-        <v>0.2888</v>
+        <v>0.298</v>
       </c>
       <c r="C353" t="n">
-        <v>673406.1</v>
+        <v>787851.7</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="B354" t="n">
-        <v>0.2706</v>
+        <v>0.2947</v>
       </c>
       <c r="C354" t="n">
-        <v>221306.7</v>
+        <v>404459.3</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45830</v>
+        <v>45833</v>
       </c>
       <c r="B355" t="n">
-        <v>0.2582</v>
+        <v>0.2859</v>
       </c>
       <c r="C355" t="n">
-        <v>601312.6</v>
+        <v>322345.2</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45831</v>
+        <v>45834</v>
       </c>
       <c r="B356" t="n">
-        <v>0.2986</v>
+        <v>0.2905</v>
       </c>
       <c r="C356" t="n">
-        <v>790351.8</v>
+        <v>249119.8</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45832</v>
+        <v>45835</v>
       </c>
       <c r="B357" t="n">
-        <v>0.2955</v>
+        <v>0.2911</v>
       </c>
       <c r="C357" t="n">
-        <v>401839.6</v>
+        <v>249009.6</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45833</v>
+        <v>45836</v>
       </c>
       <c r="B358" t="n">
-        <v>0.2869</v>
+        <v>0.2968</v>
       </c>
       <c r="C358" t="n">
-        <v>321978.2</v>
+        <v>269870.1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45834</v>
+        <v>45837</v>
       </c>
       <c r="B359" t="n">
-        <v>0.289</v>
+        <v>0.3087</v>
       </c>
       <c r="C359" t="n">
-        <v>249127</v>
+        <v>307156.6</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45835</v>
+        <v>45838</v>
       </c>
       <c r="B360" t="n">
-        <v>0.2912</v>
+        <v>0.296</v>
       </c>
       <c r="C360" t="n">
-        <v>249264.7</v>
+        <v>395476.7</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45836</v>
+        <v>45839</v>
       </c>
       <c r="B361" t="n">
-        <v>0.2969</v>
+        <v>0.2825</v>
       </c>
       <c r="C361" t="n">
-        <v>269610.8</v>
+        <v>193592.3</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45837</v>
+        <v>45840</v>
       </c>
       <c r="B362" t="n">
-        <v>0.3087</v>
+        <v>0.305</v>
       </c>
       <c r="C362" t="n">
-        <v>309899.6</v>
+        <v>431208</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45838</v>
+        <v>45841</v>
       </c>
       <c r="B363" t="n">
-        <v>0.2964</v>
+        <v>0.3115</v>
       </c>
       <c r="C363" t="n">
-        <v>392894.3</v>
+        <v>488786.2</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45839</v>
+        <v>45842</v>
       </c>
       <c r="B364" t="n">
-        <v>0.2838</v>
+        <v>0.3031</v>
       </c>
       <c r="C364" t="n">
-        <v>193612.3</v>
+        <v>139945.8</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45840</v>
+        <v>45843</v>
       </c>
       <c r="B365" t="n">
-        <v>0.3049</v>
+        <v>0.294</v>
       </c>
       <c r="C365" t="n">
-        <v>431014.1</v>
+        <v>265737.6</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45841</v>
+        <v>45844</v>
       </c>
       <c r="B366" t="n">
-        <v>0.3079</v>
+        <v>0.2931</v>
       </c>
       <c r="C366" t="n">
-        <v>12455.6</v>
+        <v>11710.2</v>
       </c>
     </row>
   </sheetData>
